--- a/medicine/Enfance/Margaret_Peterson_Haddix/Margaret_Peterson_Haddix.xlsx
+++ b/medicine/Enfance/Margaret_Peterson_Haddix/Margaret_Peterson_Haddix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Margaret Peterson Haddix, née le 9 avril 1964 à Washington Court House en Ohio, est une romancière américaine de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Margaret Peterson Haddix est américaine. Elle est née le 9 avril 1964 à Washington Court House en Ohio aux États-Unis. Avant d'être romancière, elle était rédactrice dans deux journaux le Fort Wayne Journal Gazette et le Indianapolis News. Et elle a aussi enseigné l'anglais dans un collège à Danville en Illinois pendant dix ans.
 </t>
@@ -544,32 +558,176 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Shadow Children
-L'Enfant interdit, Rageot, 2001 ((en) Among the Hidden, 1998), trad. Ariane Bataille, 192 p.  (ISBN 978-2-7002-2716-1)
+          <t>Série Shadow Children</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Enfant interdit, Rageot, 2001 ((en) Among the Hidden, 1998), trad. Ariane Bataille, 192 p.  (ISBN 978-2-7002-2716-1)
 (en) Among the Impostors, 2001
 (en) Among the Betrayed, 2002
 (en) Among the Barons, 2003
 (en) Among the Brave, 2004
 (en) Among the Enemy, 2005
-(en) Among the Free, 2006
-Série Les Orphelins du temps
-La Liste, Toucan, 2009 ((en) Found, 2008), trad. Franck Poncelet, 335 p.  (ISBN 978-2-8100-0283-2)
+(en) Among the Free, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Orphelins du temps</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Liste, Toucan, 2009 ((en) Found, 2008), trad. Franck Poncelet, 335 p.  (ISBN 978-2-8100-0283-2)
 La Fuite, Toucan, 2009 ((en) Sent, 2009), trad. Franck Poncelet, 335 p.  (ISBN 978-2-8100-0318-1)
 Sabotage, Toucan, 2011 ((en) Sabotaged, 2010), trad. Franck Poncelet, 365 p.  (ISBN 978-2-8100-0336-5)
 Déchirure, Toucan, 2012 ((en) Torn, 2011), trad. Franck Poncelet, 364 p.  (ISBN 978-2-8100-0438-6)
 (en) Caught, 2012
 (en) Risked, 2013
 (en) Revealed, 2014
-(en) Redeemed, 2015
-Série La Disparition des enfants Greystone
-La Disparition des enfants Greystone, Milan, 2019 ((en) The Strangers, 2019), trad. Leslie Damant-Jeandel, 416 p.  (ISBN 978-2-408-00424-8)
+(en) Redeemed, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série La Disparition des enfants Greystone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Disparition des enfants Greystone, Milan, 2019 ((en) The Strangers, 2019), trad. Leslie Damant-Jeandel, 416 p.  (ISBN 978-2-408-00424-8)
 Les Imposteurs, Milan, 2020 ((en) The Deceivers, 2020), trad. Leslie Damant-Jeandel, 448 p.  (ISBN 978-2-408-00423-1)
-Les Messagers, Milan, 2021 ((en) The Messengers, 2021), trad. Leslie Damant-Jeandel, 416 p.  (ISBN 978-2-408-00425-5)
-Univers Les 39 Clés
-Série Les 39 Clés
- Ultime défi en Grande-Bretagne, Bayard Jeunesse, 2012 ((en) Into The Gauntlet, 2010), trad. Vanessa Rubio-Barreau, 288 p.  (ISBN 978-2-7470-3261-2)
-Romans indépendants
-(en) Running Out of Time, 1995
+Les Messagers, Milan, 2021 ((en) The Messengers, 2021), trad. Leslie Damant-Jeandel, 416 p.  (ISBN 978-2-408-00425-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ultime défi en Grande-Bretagne, Bayard Jeunesse, 2012 ((en) Into The Gauntlet, 2010), trad. Vanessa Rubio-Barreau, 288 p.  (ISBN 978-2-7470-3261-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margaret_Peterson_Haddix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Running Out of Time, 1995
 (en) Don't You Dare Read This, Mrs. Dunphrey, 1996
 (en) Leaving Fishers, 1997
 (en) Turnabout, 2000
